--- a/data/case1/15/Plm1_14.xlsx
+++ b/data/case1/15/Plm1_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.12461632833321801</v>
+        <v>-0.089808712187860351</v>
       </c>
       <c r="B1" s="0">
-        <v>0.12411012809288025</v>
+        <v>0.089424213299338362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.078004508497336644</v>
+        <v>-0.043313021271684349</v>
       </c>
       <c r="B2" s="0">
-        <v>0.075842874259452131</v>
+        <v>0.04173774064917346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.12016947195380823</v>
+        <v>0.11574122265354347</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.12077769907744695</v>
+        <v>-0.11627530436470224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.16320950209440355</v>
+        <v>-0.16772105924575342</v>
       </c>
       <c r="B4" s="0">
-        <v>0.16232612141882186</v>
+        <v>0.166850556560032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.15632612240875954</v>
+        <v>-0.1608505567775822</v>
       </c>
       <c r="B5" s="0">
-        <v>0.15455070979056451</v>
+        <v>0.15910791519564071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.064208200257277248</v>
+        <v>-0.04632993517199635</v>
       </c>
       <c r="B6" s="0">
-        <v>0.064154532801871333</v>
+        <v>0.046303677617765437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.044154533992195155</v>
+        <v>-0.026303677884495613</v>
       </c>
       <c r="B7" s="0">
-        <v>0.044063577029683998</v>
+        <v>0.026269841172741337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.024063578226976468</v>
+        <v>-0.0062698414404200875</v>
       </c>
       <c r="B8" s="0">
-        <v>0.024024084399085766</v>
+        <v>0.0062480313558639367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.018024085437565063</v>
+        <v>-0.00024803158280395365</v>
       </c>
       <c r="B9" s="0">
-        <v>0.018000208207612722</v>
+        <v>0.00022368070155387443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.012000209250508931</v>
+        <v>0.030889997995231511</v>
       </c>
       <c r="B10" s="0">
-        <v>0.012001986632242279</v>
+        <v>-0.030929744897328248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.02600950839090288</v>
+        <v>0.035429744674956964</v>
       </c>
       <c r="B11" s="0">
-        <v>0.025995748986662903</v>
+        <v>-0.035523348377608954</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.019995750031166271</v>
+        <v>-0.020153479237583038</v>
       </c>
       <c r="B12" s="0">
-        <v>0.019955224448854558</v>
+        <v>0.020108747892487067</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.01395522550037942</v>
+        <v>-0.014108748120237991</v>
       </c>
       <c r="B13" s="0">
-        <v>0.01394889119065823</v>
+        <v>0.01410120770610046</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0019488923143429204</v>
+        <v>-0.0021012079518873961</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0019477796618501131</v>
+        <v>0.0021008462141880457</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0040522192847864957</v>
+        <v>-0.021051136153229066</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0040554189086563497</v>
+        <v>0.021026624367998181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.01005541785581876</v>
+        <v>-0.015026624597005878</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.010073479806776753</v>
+        <v>0.015004398516011541</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.016073478756933213</v>
+        <v>-0.0090043987460628472</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.016092332139536758</v>
+        <v>0.0089999997608440907</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.03610562061685485</v>
+        <v>-0.036111192254317359</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036095669545591846</v>
+        <v>0.036096856237779917</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027095670555357554</v>
+        <v>-0.027096856461699126</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027012694958531203</v>
+        <v>0.027013922214804253</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0180126959771858</v>
+        <v>-0.018013922440813346</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004125060434362</v>
+        <v>0.018004272070724525</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090041260803630507</v>
+        <v>-0.0090042722970613553</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999989791493817</v>
+        <v>0.0089999997733896109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.12698959724496817</v>
+        <v>-0.14847896352769752</v>
       </c>
       <c r="B22" s="0">
-        <v>0.12622500587957575</v>
+        <v>0.14745265200102509</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.11722500691182525</v>
+        <v>-0.084631998528297281</v>
       </c>
       <c r="B23" s="0">
-        <v>0.11588254780141494</v>
+        <v>0.084126397641222539</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.073882549248296847</v>
+        <v>-0.042126397970635665</v>
       </c>
       <c r="B24" s="0">
-        <v>0.073215510184049037</v>
+        <v>0.041999999668608012</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.084342510555945438</v>
+        <v>-0.094884222148870379</v>
       </c>
       <c r="B25" s="0">
-        <v>0.084176661469960834</v>
+        <v>0.094642097493387922</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.078176662495199167</v>
+        <v>-0.088642097719418445</v>
       </c>
       <c r="B26" s="0">
-        <v>0.077963910416972482</v>
+        <v>0.088330956266929661</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.071963911447050055</v>
+        <v>-0.082330956494184093</v>
       </c>
       <c r="B27" s="0">
-        <v>0.07123851217143784</v>
+        <v>0.081269973104475035</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075263384898943464</v>
+        <v>-0.075269973336794749</v>
       </c>
       <c r="B28" s="0">
-        <v>0.07452944960102581</v>
+        <v>0.074534729298054714</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062529450737843106</v>
+        <v>-0.062534729551693147</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062166928614272976</v>
+        <v>0.062169736491538785</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042166929851553903</v>
+        <v>-0.042169736770436117</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042017952879653375</v>
+        <v>0.042020282892756722</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027017954068773165</v>
+        <v>-0.027020283159471248</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000368345618142</v>
+        <v>0.027000910629546127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060003696071504464</v>
+        <v>-0.0060009109144054662</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999989146772847</v>
+        <v>0.0059999997591599907</v>
       </c>
     </row>
   </sheetData>
